--- a/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Garantia_Terminos Por Rol_2018-Noviembre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Garantia_Terminos Por Rol_2018-Noviembre.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -253,7 +253,7 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Acumulación.</t>
+          <t xml:space="preserve">Aprobación No Inicio Investigación.</t>
         </is>
       </c>
       <c r="C4" s="65">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -332,7 +332,7 @@
         </is>
       </c>
       <c r="C9" s="65">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
